--- a/docs/chat_history.xlsx
+++ b/docs/chat_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,6 +1884,255 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:27:50.101108</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>76</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня?</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>400690372</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ihmatullaev</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:28:01.319660</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>77</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>📑 Выгрузить отчёт по чатам</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня?</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>400690372</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ihmatullaev</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:29:06.959018</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>78</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>🗑 Очистить контекст общения</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня?</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>400690372</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ihmatullaev</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:30:03.853124</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>79</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>📑 Выгрузить отчёт по чатам</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня? 
+Если у вас есть вопросы по нашим курсам по нейропсихологии, я с радостью помогу вам с информацией.</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>400690372</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ihmatullaev</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:36:10.693294</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>80</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня? Если у вас есть вопросы по нашим курсам по нейропсихологии, я с радостью помогу вам с информацией.</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>400690372</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ihmatullaev</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-02-09 22:40:19.817586</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>81</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Хай</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Привет! Как мы можем помочь вам сегодня? Если у вас есть вопросы о наших курсах по нейропсихологии, я с радостью отвечу на них.</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>5667347803</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Radtesla</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-02-09 23:07:18.029188</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>82</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня? Если у вас есть вопросы о наших курсах по нейропсихологии, я с радостью отвечу на них.</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5667347803</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Radtesla</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-02-09 23:09:15.243062</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>83</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>📑 Выгрузить отчёт по чатам</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Добрый день! 👋 Рады видеть вас в Институте Психологии. Как мы можем помочь вам сегодня? Если у вас есть вопросы о наших курсах по нейропсихологии, я с радостью отвечу на них.</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>5667347803</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Radtesla</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
